--- a/claimInterfaceTest/case/testcase1.xlsx
+++ b/claimInterfaceTest/case/testcase1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13125"/>
+    <workbookView windowWidth="27345" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>用例编号</t>
   </si>
@@ -42,46 +42,43 @@
     <t>检查点</t>
   </si>
   <si>
+    <t>关联</t>
+  </si>
+  <si>
     <t>是否执行</t>
   </si>
   <si>
     <t>test1</t>
   </si>
   <si>
-    <t>http://127.0.0.1:2080/</t>
-  </si>
-  <si>
-    <t>WebTours/home.html</t>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>"username=justin1&amp;passwd=123456"</t>
+  </si>
+  <si>
+    <t>"用户已存在"</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>Form</t>
-  </si>
-  <si>
     <t>"0"</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>WebTours/login.pl</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>"userSession=124264.545240988zDQVifHpftfiDDDDDiDfVpVtfcHf&amp;username=andy&amp;password=123456&amp;login.x=53&amp;login.y=7&amp;login=Login&amp;JSFormSubmit=on"</t>
-  </si>
-  <si>
-    <t>html</t>
   </si>
 </sst>
 </file>
@@ -89,12 +86,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,11 +108,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,14 +131,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -151,9 +139,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,20 +228,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -187,61 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,19 +260,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,138 +434,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,24 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +451,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,78 +543,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -555,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,16 +571,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,116 +592,116 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +710,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1054,7 +1061,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1063,6 +1070,7 @@
     <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="27.75" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1090,20 +1098,21 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="122" customHeight="1" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1122,7 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -1123,40 +1132,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="122" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:C3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://127.0.0.1:2080/"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
